--- a/biology/Neurosciences/Neuroligine/Neuroligine.xlsx
+++ b/biology/Neurosciences/Neuroligine/Neuroligine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les neuroligines (NLGN) sont des protéines d'adhésion synaptiques de type I-like présentes dans le système nerveux de nombreux animaux. Elles sont depuis quelques années l'objet de recherches dans le cadre de la psychopathologie de l'autisme et du retard mental à travers le rôle qu'elles peuvent jouer dans l'ontogénèse et la fonctionnalité du cerveau. Elle a également été mise en cause dans le syndrome de l'X fragile[réf. nécessaire].
@@ -514,15 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Structure primaire
-Les neuroligines ont une taille variable suivant le résultat de l'épissage alternatif allant d'une centaine à plus de 1000 acides aminés[8].
+          <t>Structure primaire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les neuroligines ont une taille variable suivant le résultat de l'épissage alternatif allant d'une centaine à plus de 1000 acides aminés.
 Elles ont pour point commun :
 d'être munies d'un court domaine intracellulaire C-terminal de type "PDZ-binding protein"(Site de liaison potentiel aux protéines de la densité post-synaptique) ;
 elles sont une fois transmembranaire
-et ont un large domaine extracellulaire N-terminal composé d'une séquence homologue acétylcholine-estérase (bien qu'elle ne présente pas d'activité). Elle peut être modifiée par épissage alternatif au niveau d'un site d'épissage alternatif A, voir 2 avec un site additionnel B pour la neuroligine 1.
-Structure secondaire
-Structure tertiaire
-Structure quaternaire</t>
+et ont un large domaine extracellulaire N-terminal composé d'une séquence homologue acétylcholine-estérase (bien qu'elle ne présente pas d'activité). Elle peut être modifiée par épissage alternatif au niveau d'un site d'épissage alternatif A, voir 2 avec un site additionnel B pour la neuroligine 1.</t>
         </is>
       </c>
     </row>
@@ -550,7 +564,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'Homo sapiens, il existe 5 types de NLGN différentes appelées NLGN1, NLGN2, NLGN3, NLGN4X et NLGN5 (ou NLGN4Y) chacune produites par des gènes différents.
 </t>
@@ -583,8 +599,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expression
-Dans le système nerveux centrale NLGN1 est principalement présente dans les synapses Glutamatergique (excitatrice) et NLGN2 est présente dans les synapses Gabaergique (Inhibitrice).
+          <t>Expression</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le système nerveux centrale NLGN1 est principalement présente dans les synapses Glutamatergique (excitatrice) et NLGN2 est présente dans les synapses Gabaergique (Inhibitrice).
 Les NLGN sont des protéines postsynaptique avec comme partenaire présynaptique, les neurexines.
 </t>
         </is>
@@ -611,14 +632,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fonction</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Interaction avec les neurexines</t>
-        </is>
-      </c>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,70 +660,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Développement</t>
+          <t>Exemples d'espèces exprimant des neuroligines</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Neuroligine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Neuroligine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Pathologies</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Autismes
-Déficiences mentales
-Syndrome de Gilles de la Tourette</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Neuroligine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Neuroligine</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Exemples d'espèces exprimant des neuroligines</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>De nombreuses espèces (au moins 39 recensées à ce jour sur NCBI/protein, avril 2013) expriment les neuroligines[9] :
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>De nombreuses espèces (au moins 39 recensées à ce jour sur NCBI/protein, avril 2013) expriment les neuroligines :
 insectes :
 drosophile,
 Culex quinquefasciatus (moustique),
@@ -739,31 +702,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Neuroligine</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Neuroligine</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>État de la recherche actuelle</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
